--- a/medicine/Enfance/Loulou_(Grégoire_Solotareff)/Loulou_(Grégoire_Solotareff).xlsx
+++ b/medicine/Enfance/Loulou_(Grégoire_Solotareff)/Loulou_(Grégoire_Solotareff).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loulou_(Gr%C3%A9goire_Solotareff)</t>
+          <t>Loulou_(Grégoire_Solotareff)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Loulou est un album jeunesse écrit et illustré par Grégoire Solotareff et paru en 1989 aux éditions  L'École des Loisirs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loulou_(Gr%C3%A9goire_Solotareff)</t>
+          <t>Loulou_(Grégoire_Solotareff)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Loulou est paru en 1989[1] aux éditions L'École des Loisirs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loulou est paru en 1989 aux éditions L'École des Loisirs.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loulou_(Gr%C3%A9goire_Solotareff)</t>
+          <t>Loulou_(Grégoire_Solotareff)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Accueil et adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Loulou a été adapté en long métrage.
-Loulou est devenu un classique[2],[3]de la littérature de jeunesse en France.
+Loulou est devenu un classique,de la littérature de jeunesse en France.
 </t>
         </is>
       </c>
